--- a/pandas/tests/io/data/test_squeeze.xlsx
+++ b/pandas/tests/io/data/test_squeeze.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamayd/clones/pandas/pandas/tests/io/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\python-dev\pandas\pandas\io\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{068F6E2D-A2AF-0246-9CDD-9903CC6654E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="2240" windowWidth="12000" windowHeight="6460" tabRatio="500"/>
+    <workbookView xWindow="15780" yWindow="2235" windowWidth="12000" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="two_columns" sheetId="1" r:id="rId1"/>
@@ -18,11 +17,8 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -417,9 +413,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -435,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -443,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -453,6 +449,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -464,27 +465,24 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="8.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
